--- a/TestData/Prompts_TestData_4_1.xlsx
+++ b/TestData/Prompts_TestData_4_1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d535f39b5ea74528/2020_Y1/PhD/Y_Conferences^MPaper/17_CAADRIA2025/HRI_LLM/TextData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d535f39b5ea74528/2020_Y1/PhD/Y_Conferences^MPaper/17_CAADRIA2025/HRI_LLM/TestData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_55C933ABD3C05731B7B83511595ED87656CDDB89" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FA8EB34-00B7-472A-BA53-00F70097CCD0}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_55C933ABD3C05731B7B83511595ED87656CDDB89" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E04C1E5-9DFD-483B-BC14-42452FD36E54}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
   <si>
     <t>Prompt ID</t>
   </si>
@@ -58,15 +58,6 @@
     <t>Shift down 31.5 mm</t>
   </si>
   <si>
-    <t>Move closer for 21.5 mm</t>
-  </si>
-  <si>
-    <t>Shift backward 100 mm</t>
-  </si>
-  <si>
-    <t>Lower the gripper for 90 mm</t>
-  </si>
-  <si>
     <t>Move along negative y-axis for 122 mm</t>
   </si>
   <si>
@@ -112,15 +103,6 @@
     <t>Lower the arm down for 2 inches</t>
   </si>
   <si>
-    <t xml:space="preserve">Reach towards me for 3 centimeters </t>
-  </si>
-  <si>
-    <t>Move backward for 17 cm</t>
-  </si>
-  <si>
-    <t>Shift right 31.5 cm</t>
-  </si>
-  <si>
     <t>Move left 2 mm then up 3mm</t>
   </si>
   <si>
@@ -199,9 +181,6 @@
     <t>move along positive z direction for 80 cm and along negative y direction for 30 cm</t>
   </si>
   <si>
-    <t>move up a bit and along y-direction for 10 cm</t>
-  </si>
-  <si>
     <t>shift to the left a bit and upwards for 12 cm</t>
   </si>
   <si>
@@ -329,6 +308,117 @@
   </si>
   <si>
     <t>Great</t>
+  </si>
+  <si>
+    <t>Move towards me for 2 mm</t>
+  </si>
+  <si>
+    <t>Shift away from me for 100 mm</t>
+  </si>
+  <si>
+    <t>Shift right for 25 mm</t>
+  </si>
+  <si>
+    <t>Lift up 66 mm</t>
+  </si>
+  <si>
+    <t>move along y axis for 100 mm</t>
+  </si>
+  <si>
+    <t>move in negative z direction for 90 mm</t>
+  </si>
+  <si>
+    <t>Shift in negative x-axis for 199 mm</t>
+  </si>
+  <si>
+    <t>Shift in z-direction for 46 mm</t>
+  </si>
+  <si>
+    <t>Move left for 2 ft</t>
+  </si>
+  <si>
+    <t>Move along positive x-axis for 10 centimeters</t>
+  </si>
+  <si>
+    <t>Move along positive y-axis for 93 centimeters</t>
+  </si>
+  <si>
+    <t>Move along the negative y-axis for 0.5 m</t>
+  </si>
+  <si>
+    <t>Move along negative x-axis for 20 centimeters</t>
+  </si>
+  <si>
+    <t>Shift in negative y direction for 1 ft</t>
+  </si>
+  <si>
+    <t>move in negative z-direction for 35 cm</t>
+  </si>
+  <si>
+    <t>Shift along positive z-axis for 0.3 m</t>
+  </si>
+  <si>
+    <t>Shift left for 44 mm and lift up for 33 mm</t>
+  </si>
+  <si>
+    <t>move in negative y direction for 90 mm and positive z for 30 mm</t>
+  </si>
+  <si>
+    <t>Move 15 mm in the negative X direction and 50 mm in the positive Y direction.</t>
+  </si>
+  <si>
+    <t>Adjust the position by moving 10 mm along the Y-axis and 35 mm along the Z-axis.</t>
+  </si>
+  <si>
+    <t>Shift 20 mm in the negative Y-axis direction and 10 mm in the negative Z-axis direction</t>
+  </si>
+  <si>
+    <t>move 0.3 m in X direction and 0.4 m in Y direction</t>
+  </si>
+  <si>
+    <t>Shift 33 cm along Y axis, and 30 cm along negative z direction</t>
+  </si>
+  <si>
+    <t>Adjust position by moving 0.2 m in negative x-axis and 0.6 m in positive y-axis</t>
+  </si>
+  <si>
+    <t>Displace 50 cm along positive x and 0.3 m along positive y</t>
+  </si>
+  <si>
+    <t>shift 7 cm in positive z axis and 3 cm in negative x axis</t>
+  </si>
+  <si>
+    <t>move up z-axis a bit and along y-direction for 10 cm</t>
+  </si>
+  <si>
+    <t>Move forward for 24 mm, to the left for 16 mm, and down for 79 mm</t>
+  </si>
+  <si>
+    <t>Shift 27 mm in genative x direction, 13 mm in positve y direction, and 50 mm in positve z direction</t>
+  </si>
+  <si>
+    <t>Move 30 mm along x-axis, 30 mm along y-axis, and 20 mm along negative z-axis</t>
+  </si>
+  <si>
+    <t>Move along negative x direction for 10 mm, negative y for 32 mm, and positive z for 69 mm</t>
+  </si>
+  <si>
+    <t>move in negative x direction for 49 mm, positive y for 30 mm, negative z for 20 mm</t>
+  </si>
+  <si>
+    <t>Shift left for 89 cm, closer for 10 cm, and downward for 50 cm</t>
+  </si>
+  <si>
+    <t>Displace 0.9 m in positive x, 0.3 m in negative y, and 0.2 m in negative z</t>
+  </si>
+  <si>
+    <t>Shift 0.4 m in negative x axis, 0.2 m in positive y axis, and 0.7 m in positive z axis</t>
+  </si>
+  <si>
+    <t>Shift along positive x direction for 15 cm, negative y for 0.4 m, and positive z for 30 cm</t>
+  </si>
+  <si>
+    <t>Shift in x-axis for 1 ft, negative y for 10 cm, and positive z direction for 0.6 m</t>
   </si>
 </sst>
 </file>
@@ -691,10 +781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C101"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="F126" sqref="F126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -739,7 +829,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -747,7 +837,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -763,7 +853,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -787,7 +877,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -795,7 +885,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -803,7 +893,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -811,7 +901,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -819,7 +909,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -827,7 +917,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -835,7 +925,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -843,7 +933,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -851,7 +941,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -859,7 +949,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -867,7 +957,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -875,7 +965,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -883,7 +973,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -891,7 +981,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -899,7 +989,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -907,7 +997,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -915,7 +1005,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -923,7 +1013,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
@@ -931,7 +1021,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -939,7 +1029,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -947,7 +1037,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -955,7 +1045,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -963,7 +1053,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -971,7 +1061,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -979,7 +1069,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -987,7 +1077,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
@@ -995,7 +1085,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
@@ -1003,7 +1093,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -1011,7 +1101,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -1019,7 +1109,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -1027,7 +1117,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
@@ -1035,7 +1125,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -1043,7 +1133,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -1051,7 +1141,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
@@ -1059,7 +1149,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
@@ -1067,7 +1157,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
@@ -1075,7 +1165,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
@@ -1083,7 +1173,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
@@ -1091,7 +1181,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
@@ -1099,7 +1189,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
@@ -1107,7 +1197,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>112</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
@@ -1115,7 +1205,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -1123,7 +1213,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
@@ -1131,7 +1221,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
@@ -1139,7 +1229,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -1147,7 +1237,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -1155,7 +1245,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
@@ -1163,7 +1253,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -1171,7 +1261,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
@@ -1179,7 +1269,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
@@ -1187,7 +1277,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
@@ -1195,7 +1285,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
@@ -1203,7 +1293,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
@@ -1211,7 +1301,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
@@ -1219,7 +1309,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
@@ -1227,7 +1317,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
@@ -1235,7 +1325,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
@@ -1243,7 +1333,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
@@ -1251,7 +1341,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
@@ -1259,7 +1349,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
@@ -1267,7 +1357,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
@@ -1275,7 +1365,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
@@ -1283,7 +1373,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
@@ -1291,7 +1381,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
@@ -1299,7 +1389,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
@@ -1307,7 +1397,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
@@ -1315,7 +1405,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
@@ -1323,7 +1413,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
@@ -1331,7 +1421,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
@@ -1339,7 +1429,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
@@ -1347,7 +1437,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
@@ -1355,7 +1445,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
@@ -1363,7 +1453,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
@@ -1371,7 +1461,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
@@ -1379,7 +1469,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
@@ -1387,7 +1477,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
@@ -1395,7 +1485,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
@@ -1403,7 +1493,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
@@ -1411,7 +1501,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
@@ -1419,7 +1509,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
@@ -1427,7 +1517,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
@@ -1435,7 +1525,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
@@ -1443,7 +1533,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
@@ -1451,7 +1541,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
@@ -1459,7 +1549,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
@@ -1467,7 +1557,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
@@ -1475,7 +1565,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
@@ -1483,7 +1573,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
@@ -1491,7 +1581,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
@@ -1499,7 +1589,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
@@ -1507,7 +1597,247 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103">
         <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
